--- a/DATA_goal/Junction_Flooding_471.xlsx
+++ b/DATA_goal/Junction_Flooding_471.xlsx
@@ -449,7 +449,7 @@
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44802.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.09</v>
+        <v>30.93</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.34</v>
+        <v>23.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.34</v>
+        <v>33.37</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>16.43</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.12</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.95</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44802.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.99</v>
+        <v>49.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.74</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44802.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.07</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>95.65000000000001</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.28</v>
+        <v>22.82</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>44802.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,85 +985,85 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_471.xlsx
+++ b/DATA_goal/Junction_Flooding_471.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44802.54861111111</v>
+        <v>45152.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.32</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.55</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.93</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.41</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.08</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.37</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.45</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.02</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.47</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.13</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.89</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.62</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.28</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.51</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.99</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.71</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.41</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.07</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.3</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.95</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.7</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.4</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.38</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.18</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.64</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.02</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44802.55555555555</v>
+        <v>45152.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.72</v>
+        <v>20.178</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.99</v>
+        <v>14.467</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.944</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.46</v>
+        <v>43.239</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.44</v>
+        <v>35.765</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.59</v>
+        <v>15.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.28</v>
+        <v>61.805</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.82</v>
+        <v>24.432</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.3</v>
+        <v>10.655</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.14</v>
+        <v>16.046</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.09</v>
+        <v>17.406</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.4</v>
+        <v>18.213</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.22</v>
+        <v>5.073</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>15.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.15</v>
+        <v>22.348</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.61</v>
+        <v>13.415</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.68</v>
+        <v>1.176</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.94</v>
+        <v>233.037</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.74</v>
+        <v>44.186</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>14.575</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.72</v>
+        <v>29.463</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.39</v>
+        <v>15.683</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.891</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>29.869</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.07</v>
+        <v>12.874</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.94</v>
+        <v>11.559</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.48</v>
+        <v>13.553</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.05</v>
+        <v>18.166</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.44</v>
+        <v>55.879</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.77</v>
+        <v>8.132</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.34</v>
+        <v>18.223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44802.5625</v>
+        <v>45152.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.57</v>
+        <v>7.206</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.11</v>
+        <v>4.959</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.85</v>
+        <v>15.251</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.74</v>
+        <v>12.618</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.66</v>
+        <v>5.672</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.07</v>
+        <v>26.785</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.46</v>
+        <v>3.736</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.48</v>
+        <v>5.586</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.51</v>
+        <v>6.216</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.02</v>
+        <v>6.394</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.17</v>
+        <v>1.817</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>7.941</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.97</v>
+        <v>4.958</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>1.003</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.542</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.65000000000001</v>
+        <v>78.54300000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.85</v>
+        <v>15.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.35</v>
+        <v>10.498</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.48</v>
+        <v>5.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.598</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.23</v>
+        <v>12.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.02</v>
+        <v>4.229</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.91</v>
+        <v>4.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.73</v>
+        <v>6.441</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.82</v>
+        <v>24.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.4</v>
+        <v>2.827</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44802.56944444445</v>
+        <v>45152.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.41</v>
+        <v>11.05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.09</v>
+        <v>7.96</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>124.28</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>6.59</v>
+        <v>29.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44802.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>193.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.18</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_471.xlsx
+++ b/DATA_goal/Junction_Flooding_471.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45152.50694444445</v>
+        <v>44802.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.1</v>
+        <v>14.315</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.162</v>
+        <v>9.452</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.209</v>
+        <v>3.548</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.427</v>
+        <v>30.929</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.398</v>
+        <v>23.407</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.391</v>
+        <v>11.081</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.345</v>
+        <v>33.367</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.759</v>
+        <v>17.452</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.337</v>
+        <v>7.022</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.452</v>
+        <v>10.47</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.439</v>
+        <v>12.134</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.302</v>
+        <v>12.887</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.553</v>
+        <v>3.618</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.294</v>
+        <v>11.279</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.297</v>
+        <v>15.513</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.517</v>
+        <v>9.993</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.762</v>
+        <v>3.077</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.458</v>
+        <v>1.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.893</v>
+        <v>164.3</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.146</v>
+        <v>31.24</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.963</v>
+        <v>10.411</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.894</v>
+        <v>20.071</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.657</v>
+        <v>10.298</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.022</v>
+        <v>2.945</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.586</v>
+        <v>17.697</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.1</v>
+        <v>9.196</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.689</v>
+        <v>8.398</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.848</v>
+        <v>9.994999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.074</v>
+        <v>12.384</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.078</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.56</v>
+        <v>30.175</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.856</v>
+        <v>5.636</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.957</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45152.51388888889</v>
+        <v>44802.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.178</v>
+        <v>4.719</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.467</v>
+        <v>2.995</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.944</v>
+        <v>1.369</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>43.239</v>
+        <v>10.456</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>35.765</v>
+        <v>7.439</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.88</v>
+        <v>3.594</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.805</v>
+        <v>17.277</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.432</v>
+        <v>5.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.655</v>
+        <v>2.302</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.046</v>
+        <v>3.144</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.406</v>
+        <v>4.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.213</v>
+        <v>4.403</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.073</v>
+        <v>1.215</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.79</v>
+        <v>3.76</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.348</v>
+        <v>5.145</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.415</v>
+        <v>3.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.359</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.176</v>
+        <v>0.679</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>233.037</v>
+        <v>49.939</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>44.186</v>
+        <v>10.741</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.575</v>
+        <v>3.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>29.463</v>
+        <v>6.725</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>15.683</v>
+        <v>3.395</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.891</v>
+        <v>1.131</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.869</v>
+        <v>8.382</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.874</v>
+        <v>3.065</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.559</v>
+        <v>2.941</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.553</v>
+        <v>3.475</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.166</v>
+        <v>4.052</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.199</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.879</v>
+        <v>16.437</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.132</v>
+        <v>1.772</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.223</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45152.52083333334</v>
+        <v>44802.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.206</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.959</v>
+        <v>6.114</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.016</v>
+        <v>1.041</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.251</v>
+        <v>18.853</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.618</v>
+        <v>14.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.672</v>
+        <v>6.659</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.785</v>
+        <v>25.072</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.726000000000001</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.736</v>
+        <v>4.462</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.586</v>
+        <v>6.478</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.216</v>
+        <v>7.507</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.394</v>
+        <v>8.02</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.817</v>
+        <v>2.172</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.639</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.941</v>
+        <v>9.455</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.958</v>
+        <v>5.973</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.003</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.542</v>
+        <v>0.582</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.54300000000001</v>
+        <v>95.654</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.975</v>
+        <v>18.852</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.205</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.498</v>
+        <v>12.35</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.68</v>
+        <v>6.477</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.598</v>
+        <v>1.308</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.28</v>
+        <v>12.227</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.598</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.229</v>
+        <v>5.023</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.939</v>
+        <v>5.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.441</v>
+        <v>7.728</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.747</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.37</v>
+        <v>22.818</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.827</v>
+        <v>3.405</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.509</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45152.52777777778</v>
+        <v>44802.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.05</v>
+        <v>0.413</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.96</v>
+        <v>0.089</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.72</v>
+        <v>1.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.61</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>33.3</v>
+        <v>6.449</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.38</v>
+        <v>0.582</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.84</v>
+        <v>0.232</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.76</v>
+        <v>0.098</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.347</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.01</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.65</v>
+        <v>0.376</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.22</v>
+        <v>0.609</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.4</v>
+        <v>0.572</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.646</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.245</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.28</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.14</v>
+        <v>1.543</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.98</v>
+        <v>0.347</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.07</v>
+        <v>0.979</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.65</v>
+        <v>0.387</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.365</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.98</v>
+        <v>2.927</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.307</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.33</v>
+        <v>0.434</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.43</v>
+        <v>0.478</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.04</v>
+        <v>0.301</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.88</v>
+        <v>6.586</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.98</v>
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44802.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>193.39</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.02</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_471.xlsx
+++ b/DATA_goal/Junction_Flooding_471.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44802.54861111111</v>
+        <v>45152.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.315</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.452</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.548</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>30.929</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.407</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.081</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>33.367</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
+        <v>26.759</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>11.337</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <v>17.452</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>7.022</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>10.47</v>
-      </c>
       <c r="L2" s="4" t="n">
-        <v>12.134</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.887</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.618</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.279</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.513</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.993</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.077</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.709</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>164.3</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>31.24</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.411</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.071</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.298</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.945</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.697</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.196</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.398</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.994999999999999</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.384</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.078</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>30.175</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.636</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.015</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44802.55555555555</v>
+        <v>45152.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.719</v>
+        <v>20.178</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.995</v>
+        <v>14.467</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.369</v>
+        <v>1.944</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>10.456</v>
+        <v>43.239</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.439</v>
+        <v>35.765</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.594</v>
+        <v>15.88</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.277</v>
+        <v>61.805</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.817</v>
+        <v>24.432</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.302</v>
+        <v>10.655</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.144</v>
+        <v>16.046</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.09</v>
+        <v>17.406</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.403</v>
+        <v>18.213</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.215</v>
+        <v>5.073</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.76</v>
+        <v>15.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.145</v>
+        <v>22.348</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.61</v>
+        <v>13.415</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.359</v>
+        <v>1.65</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.679</v>
+        <v>1.176</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>49.939</v>
+        <v>233.037</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>10.741</v>
+        <v>44.186</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.47</v>
+        <v>14.575</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.725</v>
+        <v>29.463</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.395</v>
+        <v>15.683</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.131</v>
+        <v>1.891</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.382</v>
+        <v>29.869</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.065</v>
+        <v>12.874</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.941</v>
+        <v>11.559</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.475</v>
+        <v>13.553</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.052</v>
+        <v>18.166</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.199</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.437</v>
+        <v>55.879</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.772</v>
+        <v>8.132</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.341</v>
+        <v>18.223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44802.5625</v>
+        <v>45152.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.571999999999999</v>
+        <v>7.206</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.114</v>
+        <v>4.959</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.041</v>
+        <v>1.016</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.853</v>
+        <v>15.251</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.74</v>
+        <v>12.618</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.659</v>
+        <v>5.672</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.072</v>
+        <v>26.785</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.471</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.462</v>
+        <v>3.736</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.478</v>
+        <v>5.586</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.507</v>
+        <v>6.216</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.02</v>
+        <v>6.394</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.172</v>
+        <v>1.817</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.767</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.455</v>
+        <v>7.941</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.973</v>
+        <v>4.958</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>1.003</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.582</v>
+        <v>0.542</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.654</v>
+        <v>78.54300000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.852</v>
+        <v>15.975</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.247</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.35</v>
+        <v>10.498</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.477</v>
+        <v>5.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.308</v>
+        <v>0.598</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.227</v>
+        <v>12.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.517</v>
+        <v>4.598</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.023</v>
+        <v>4.229</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.91</v>
+        <v>4.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.728</v>
+        <v>6.441</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.747</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.818</v>
+        <v>24.37</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.405</v>
+        <v>2.827</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.809</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44802.56944444445</v>
+        <v>45152.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.413</v>
+        <v>11.05</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.089</v>
+        <v>7.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.04</v>
+        <v>23.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>19.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.449</v>
+        <v>33.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.582</v>
+        <v>13.38</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.232</v>
+        <v>5.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.098</v>
+        <v>8.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.347</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.08400000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.376</v>
+        <v>8.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.609</v>
+        <v>12.22</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.572</v>
+        <v>7.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.646</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.245</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>124.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.543</v>
+        <v>24.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.347</v>
+        <v>7.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.979</v>
+        <v>16.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.387</v>
+        <v>8.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.365</v>
+        <v>1.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.927</v>
+        <v>15.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.307</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.434</v>
+        <v>6.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.478</v>
+        <v>7.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.301</v>
+        <v>10.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.527</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.586</v>
+        <v>29.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44802.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.58</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>193.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.55</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.02</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.18</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
